--- a/output/poportion2.xlsx
+++ b/output/poportion2.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1071301265687083</v>
+        <v>0.07026364602895216</v>
       </c>
       <c r="D2">
-        <v>0.1157340049257343</v>
+        <v>0.1107707477429752</v>
       </c>
       <c r="E2">
-        <v>0.005668934240362812</v>
+        <v>0.008358956534139015</v>
       </c>
       <c r="F2">
-        <v>0.03071373939646781</v>
+        <v>0.04055112653314825</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0009689922480620155</v>
       </c>
       <c r="H2">
-        <v>0.06135921206675923</v>
+        <v>0.06387021947470409</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1071301265687083</v>
+        <v>0.07026364602895216</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1065245808468315</v>
+        <v>0.2618059959507133</v>
       </c>
       <c r="E3">
-        <v>0.2364502164502164</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.01247165532879818</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="H3">
-        <v>0.1952695863418584</v>
+        <v>0.1552326116616859</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1157340049257343</v>
+        <v>0.1107707477429752</v>
       </c>
       <c r="C4">
-        <v>0.1065245808468315</v>
+        <v>0.2618059959507133</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.08266632894292468</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.001893939393939394</v>
       </c>
       <c r="H4">
-        <v>0.07065316120194169</v>
+        <v>0.2729202214496332</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005668934240362812</v>
+        <v>0.008358956534139015</v>
       </c>
       <c r="C5">
-        <v>0.2364502164502164</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2940448605791208</v>
+        <v>0.008025307024375225</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03071373939646781</v>
+        <v>0.04055112653314825</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01247165532879818</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.08266632894292468</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.04787305421363392</v>
+        <v>0.05112935012236838</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0009689922480620155</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.001893939393939394</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -570,8 +570,11 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0005913660555884092</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06135921206675923</v>
+        <v>0.06387021947470409</v>
       </c>
       <c r="C8">
-        <v>0.1952695863418584</v>
+        <v>0.1552326116616859</v>
       </c>
       <c r="D8">
-        <v>0.07065316120194169</v>
+        <v>0.2729202214496332</v>
       </c>
       <c r="E8">
-        <v>0.2940448605791208</v>
+        <v>0.008025307024375225</v>
       </c>
       <c r="F8">
-        <v>0.04787305421363392</v>
+        <v>0.05112935012236838</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005913660555884092</v>
       </c>
       <c r="H8">
         <v>1</v>

--- a/output/poportion2.xlsx
+++ b/output/poportion2.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>เมจิ</t>
+    <t>ซีพีเมจิ</t>
   </si>
   <si>
     <t>ดัชมิลล์</t>
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07026364602895216</v>
+        <v>0.256419561987408</v>
       </c>
       <c r="D2">
-        <v>0.1107707477429752</v>
+        <v>0.03967614629379335</v>
       </c>
       <c r="E2">
-        <v>0.008358956534139015</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.04055112653314825</v>
+        <v>0.07021266982576507</v>
       </c>
       <c r="G2">
-        <v>0.0009689922480620155</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.06387021947470409</v>
+        <v>0.09276407228486333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07026364602895216</v>
+        <v>0.256419561987408</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2618059959507133</v>
+        <v>0.3051817804167429</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.01247165532879818</v>
+        <v>0.07071132800946466</v>
       </c>
       <c r="G3">
-        <v>0.004219409282700422</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1552326116616859</v>
+        <v>0.2378877840947546</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1107707477429752</v>
+        <v>0.03967614629379335</v>
       </c>
       <c r="C4">
-        <v>0.2618059959507133</v>
+        <v>0.3051817804167429</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.08266632894292468</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001893939393939394</v>
+        <v>0.02035714285714285</v>
       </c>
       <c r="H4">
-        <v>0.2729202214496332</v>
+        <v>0.228807011389732</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.008358956534139015</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.008025307024375225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04055112653314825</v>
+        <v>0.07021266982576507</v>
       </c>
       <c r="C6">
-        <v>0.01247165532879818</v>
+        <v>0.07071132800946466</v>
       </c>
       <c r="D6">
-        <v>0.08266632894292468</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1581944444444444</v>
       </c>
       <c r="H6">
-        <v>0.05112935012236838</v>
+        <v>0.05090503854954722</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0009689922480620155</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.004219409282700422</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.001893939393939394</v>
+        <v>0.02035714285714285</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1581944444444444</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0005913660555884092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06387021947470409</v>
+        <v>0.09276407228486333</v>
       </c>
       <c r="C8">
-        <v>0.1552326116616859</v>
+        <v>0.2378877840947546</v>
       </c>
       <c r="D8">
-        <v>0.2729202214496332</v>
+        <v>0.228807011389732</v>
       </c>
       <c r="E8">
-        <v>0.008025307024375225</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05112935012236838</v>
+        <v>0.05090503854954722</v>
       </c>
       <c r="G8">
-        <v>0.0005913660555884092</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>

--- a/output/poportion2.xlsx
+++ b/output/poportion2.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.256419561987408</v>
+        <v>0.1763125543086931</v>
       </c>
       <c r="D2">
-        <v>0.03967614629379335</v>
+        <v>0.04091053650673963</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01223043434241166</v>
       </c>
       <c r="F2">
-        <v>0.07021266982576507</v>
+        <v>0.001770090527486977</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.03071231098309584</v>
       </c>
       <c r="H2">
-        <v>0.09276407228486333</v>
+        <v>0.1104057633619812</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.256419561987408</v>
+        <v>0.1763125543086931</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3051817804167429</v>
+        <v>0.1832286823507192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.07071132800946466</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2378877840947546</v>
+        <v>0.1242342022199737</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03967614629379335</v>
+        <v>0.04091053650673963</v>
       </c>
       <c r="C4">
-        <v>0.3051817804167429</v>
+        <v>0.1832286823507192</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02035714285714285</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.228807011389732</v>
+        <v>0.1131126642794346</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.01223043434241166</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.3207142857142857</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07021266982576507</v>
+        <v>0.001770090527486977</v>
       </c>
       <c r="C6">
-        <v>0.07071132800946466</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.3207142857142857</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1581944444444444</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.05090503854954722</v>
+        <v>0.01336314430078251</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,19 +556,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.03071231098309584</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02035714285714285</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1581944444444444</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -582,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09276407228486333</v>
+        <v>0.1104057633619812</v>
       </c>
       <c r="C8">
-        <v>0.2378877840947546</v>
+        <v>0.1242342022199737</v>
       </c>
       <c r="D8">
-        <v>0.228807011389732</v>
+        <v>0.1131126642794346</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05090503854954722</v>
+        <v>0.01336314430078251</v>
       </c>
       <c r="G8">
         <v>0</v>
